--- a/Insurace_Payments.xlsx
+++ b/Insurace_Payments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfelipe/Downloads/Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D245F-C636-A14C-AE22-CD93D0FAC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244AF73-46DB-0040-A046-9F905FCC57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="94">
   <si>
     <t>Insurance</t>
   </si>
@@ -330,13 +330,26 @@
   </si>
   <si>
     <t>CHAMPVA INS</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>CENTRAL STATES HEALTH &amp; LIFE</t>
+  </si>
+  <si>
+    <t>MEDCIARE</t>
+  </si>
+  <si>
+    <t>MIAMI FAMILY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
   </numFmts>
   <fonts count="6">
@@ -365,17 +378,16 @@
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Aptos Narrow&quot;"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,15 +436,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,10 +658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G247"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248:F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5526,10 +5533,674 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="15">
-      <c r="A248" s="11"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="12"/>
+      <c r="A248" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="11">
+        <v>122</v>
+      </c>
+      <c r="C248" s="11">
+        <v>122</v>
+      </c>
+      <c r="D248" s="12">
+        <v>96.5</v>
+      </c>
+      <c r="E248" s="13">
+        <v>0.122</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A249" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="11">
+        <v>20</v>
+      </c>
+      <c r="C249" s="11">
+        <v>20</v>
+      </c>
+      <c r="D249" s="12">
+        <v>125.9</v>
+      </c>
+      <c r="E249" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A250" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B250" s="11">
+        <v>1</v>
+      </c>
+      <c r="C250" s="11">
+        <v>1</v>
+      </c>
+      <c r="D250" s="12">
+        <v>100</v>
+      </c>
+      <c r="E250" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A251" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B251" s="11">
+        <v>2</v>
+      </c>
+      <c r="C251" s="11">
+        <v>2</v>
+      </c>
+      <c r="D251" s="12">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="E251" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A252" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="11">
+        <v>20</v>
+      </c>
+      <c r="C252" s="11">
+        <v>20</v>
+      </c>
+      <c r="D252" s="12">
+        <v>103.5</v>
+      </c>
+      <c r="E252" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A253" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="11">
+        <v>105</v>
+      </c>
+      <c r="C253" s="11">
+        <v>105</v>
+      </c>
+      <c r="D253" s="12">
+        <v>209.3</v>
+      </c>
+      <c r="E253" s="13">
+        <v>0.105</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A254" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" s="11">
+        <v>1</v>
+      </c>
+      <c r="C254" s="11">
+        <v>1</v>
+      </c>
+      <c r="D254" s="14"/>
+      <c r="E254" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A255" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" s="11">
+        <v>18</v>
+      </c>
+      <c r="C255" s="11">
+        <v>18</v>
+      </c>
+      <c r="D255" s="12">
+        <v>91.2</v>
+      </c>
+      <c r="E255" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A256" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" s="11">
+        <v>1</v>
+      </c>
+      <c r="C256" s="11">
+        <v>1</v>
+      </c>
+      <c r="D256" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E256" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A257" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="11">
+        <v>9</v>
+      </c>
+      <c r="C257" s="11">
+        <v>9</v>
+      </c>
+      <c r="D257" s="12">
+        <v>109.2</v>
+      </c>
+      <c r="E257" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A258" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B258" s="11">
+        <v>1</v>
+      </c>
+      <c r="C258" s="11">
+        <v>1</v>
+      </c>
+      <c r="D258" s="14"/>
+      <c r="E258" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A259" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" s="11">
+        <v>1</v>
+      </c>
+      <c r="C259" s="11">
+        <v>1</v>
+      </c>
+      <c r="D259" s="12">
+        <v>59.5</v>
+      </c>
+      <c r="E259" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F259" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260" s="11">
+        <v>26</v>
+      </c>
+      <c r="C260" s="11">
+        <v>26</v>
+      </c>
+      <c r="D260" s="12">
+        <v>87.3</v>
+      </c>
+      <c r="E260" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A261" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B261" s="11">
+        <v>2</v>
+      </c>
+      <c r="C261" s="11">
+        <v>2</v>
+      </c>
+      <c r="D261" s="12">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E261" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A262" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B262" s="11">
+        <v>2</v>
+      </c>
+      <c r="C262" s="11">
+        <v>2</v>
+      </c>
+      <c r="D262" s="12">
+        <v>85</v>
+      </c>
+      <c r="E262" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A263" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" s="11">
+        <v>3</v>
+      </c>
+      <c r="C263" s="11">
+        <v>3</v>
+      </c>
+      <c r="D263" s="12">
+        <v>85.5</v>
+      </c>
+      <c r="E263" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B264" s="11">
+        <v>34</v>
+      </c>
+      <c r="C264" s="11">
+        <v>34</v>
+      </c>
+      <c r="D264" s="12">
+        <v>90.3</v>
+      </c>
+      <c r="E264" s="13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A265" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B265" s="11">
+        <v>1</v>
+      </c>
+      <c r="C265" s="11">
+        <v>1</v>
+      </c>
+      <c r="D265" s="12">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E265" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A266" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266" s="11">
+        <v>18</v>
+      </c>
+      <c r="C266" s="11">
+        <v>18</v>
+      </c>
+      <c r="D266" s="12">
+        <v>130</v>
+      </c>
+      <c r="E266" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F266" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A267" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267" s="11">
+        <v>20</v>
+      </c>
+      <c r="C267" s="11">
+        <v>20</v>
+      </c>
+      <c r="D267" s="12">
+        <v>117.4</v>
+      </c>
+      <c r="E267" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A268" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B268" s="11">
+        <v>2</v>
+      </c>
+      <c r="C268" s="11">
+        <v>2</v>
+      </c>
+      <c r="D268" s="12">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E268" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F268" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A269" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B269" s="11">
+        <v>4</v>
+      </c>
+      <c r="C269" s="11">
+        <v>4</v>
+      </c>
+      <c r="D269" s="14"/>
+      <c r="E269" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F269" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A270" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" s="11">
+        <v>32</v>
+      </c>
+      <c r="C270" s="11">
+        <v>32</v>
+      </c>
+      <c r="D270" s="12">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="E270" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F270" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A271" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="11">
+        <v>272</v>
+      </c>
+      <c r="C271" s="11">
+        <v>272</v>
+      </c>
+      <c r="D271" s="12">
+        <v>100.5</v>
+      </c>
+      <c r="E271" s="13">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F271" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A272" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B272" s="11">
+        <v>9</v>
+      </c>
+      <c r="C272" s="11">
+        <v>9</v>
+      </c>
+      <c r="D272" s="14"/>
+      <c r="E272" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F272" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A273" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="11">
+        <v>64</v>
+      </c>
+      <c r="C273" s="11">
+        <v>64</v>
+      </c>
+      <c r="D273" s="12">
+        <v>94.8</v>
+      </c>
+      <c r="E273" s="13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A274" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B274" s="11">
+        <v>30</v>
+      </c>
+      <c r="C274" s="11">
+        <v>30</v>
+      </c>
+      <c r="D274" s="12">
+        <v>108.1</v>
+      </c>
+      <c r="E274" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="F274" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A275" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" s="11">
+        <v>48</v>
+      </c>
+      <c r="C275" s="11">
+        <v>48</v>
+      </c>
+      <c r="D275" s="12">
+        <v>109.9</v>
+      </c>
+      <c r="E275" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A276" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B276" s="11">
+        <v>4</v>
+      </c>
+      <c r="C276" s="11">
+        <v>4</v>
+      </c>
+      <c r="D276" s="12">
+        <v>188.1</v>
+      </c>
+      <c r="E276" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A277" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B277" s="11">
+        <v>2</v>
+      </c>
+      <c r="C277" s="11">
+        <v>2</v>
+      </c>
+      <c r="D277" s="12">
+        <v>45</v>
+      </c>
+      <c r="E277" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A278" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B278" s="11">
+        <v>21</v>
+      </c>
+      <c r="C278" s="11">
+        <v>21</v>
+      </c>
+      <c r="D278" s="12">
+        <v>56</v>
+      </c>
+      <c r="E278" s="13">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A279" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B279" s="11">
+        <v>1</v>
+      </c>
+      <c r="C279" s="11">
+        <v>1</v>
+      </c>
+      <c r="D279" s="14"/>
+      <c r="E279" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F279" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A280" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B280" s="11">
+        <v>98</v>
+      </c>
+      <c r="C280" s="11">
+        <v>98</v>
+      </c>
+      <c r="D280" s="12">
+        <v>119.4</v>
+      </c>
+      <c r="E280" s="13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F280" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A281" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B281" s="11">
+        <v>5</v>
+      </c>
+      <c r="C281" s="11">
+        <v>5</v>
+      </c>
+      <c r="D281" s="12">
+        <v>122.6</v>
+      </c>
+      <c r="E281" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Insurace_Payments.xlsx
+++ b/Insurace_Payments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfelipe/Downloads/Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6244AF73-46DB-0040-A046-9F905FCC57B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19B98D-B9D6-9441-B639-38013C330201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,12 +46,38 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>REVISAR
-	-Juan Felipe Gaviria Campo
-¿Qué es PT, de dónde vinieron los números? y añadir ONCO PET
-	-Juan Felipe Gaviria Campo</t>
+          <t xml:space="preserve">REVISAR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Juan Felipe Gaviria Campo
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">¿Qué es PT, de dónde vinieron los números? y añadir ONCO PET
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Juan Felipe Gaviria Campo</t>
         </r>
       </text>
     </comment>
@@ -352,7 +378,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -388,6 +414,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -660,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248:F281"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5546,7 +5578,7 @@
         <v>96.5</v>
       </c>
       <c r="E248" s="13">
-        <v>0.122</v>
+        <v>12.2</v>
       </c>
       <c r="F248" s="14" t="s">
         <v>90</v>
@@ -5566,7 +5598,7 @@
         <v>125.9</v>
       </c>
       <c r="E249" s="13">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="F249" s="14" t="s">
         <v>90</v>
@@ -5586,7 +5618,7 @@
         <v>100</v>
       </c>
       <c r="E250" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F250" s="14" t="s">
         <v>90</v>
@@ -5606,7 +5638,7 @@
         <v>133.30000000000001</v>
       </c>
       <c r="E251" s="13">
-        <v>2E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F251" s="14" t="s">
         <v>90</v>
@@ -5626,7 +5658,7 @@
         <v>103.5</v>
       </c>
       <c r="E252" s="13">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="F252" s="14" t="s">
         <v>90</v>
@@ -5646,7 +5678,7 @@
         <v>209.3</v>
       </c>
       <c r="E253" s="13">
-        <v>0.105</v>
+        <v>10.5</v>
       </c>
       <c r="F253" s="14" t="s">
         <v>90</v>
@@ -5664,7 +5696,7 @@
       </c>
       <c r="D254" s="14"/>
       <c r="E254" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F254" s="14" t="s">
         <v>90</v>
@@ -5684,7 +5716,7 @@
         <v>91.2</v>
       </c>
       <c r="E255" s="13">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="F255" s="14" t="s">
         <v>90</v>
@@ -5704,7 +5736,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E256" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F256" s="14" t="s">
         <v>90</v>
@@ -5724,7 +5756,7 @@
         <v>109.2</v>
       </c>
       <c r="E257" s="13">
-        <v>8.9999999999999993E-3</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F257" s="14" t="s">
         <v>90</v>
@@ -5742,7 +5774,7 @@
       </c>
       <c r="D258" s="14"/>
       <c r="E258" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F258" s="14" t="s">
         <v>90</v>
@@ -5762,7 +5794,7 @@
         <v>59.5</v>
       </c>
       <c r="E259" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F259" s="14" t="s">
         <v>90</v>
@@ -5782,7 +5814,7 @@
         <v>87.3</v>
       </c>
       <c r="E260" s="13">
-        <v>2.5999999999999999E-2</v>
+        <v>2.6</v>
       </c>
       <c r="F260" s="14" t="s">
         <v>90</v>
@@ -5802,7 +5834,7 @@
         <v>78.599999999999994</v>
       </c>
       <c r="E261" s="13">
-        <v>2E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>90</v>
@@ -5822,7 +5854,7 @@
         <v>85</v>
       </c>
       <c r="E262" s="13">
-        <v>2E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F262" s="14" t="s">
         <v>90</v>
@@ -5842,7 +5874,7 @@
         <v>85.5</v>
       </c>
       <c r="E263" s="13">
-        <v>3.0000000000000001E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F263" s="14" t="s">
         <v>90</v>
@@ -5862,7 +5894,7 @@
         <v>90.3</v>
       </c>
       <c r="E264" s="13">
-        <v>3.4000000000000002E-2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="F264" s="14" t="s">
         <v>90</v>
@@ -5882,7 +5914,7 @@
         <v>71.099999999999994</v>
       </c>
       <c r="E265" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F265" s="14" t="s">
         <v>90</v>
@@ -5902,7 +5934,7 @@
         <v>130</v>
       </c>
       <c r="E266" s="13">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="F266" s="14" t="s">
         <v>90</v>
@@ -5922,7 +5954,7 @@
         <v>117.4</v>
       </c>
       <c r="E267" s="13">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="F267" s="14" t="s">
         <v>90</v>
@@ -5942,7 +5974,7 @@
         <v>78.900000000000006</v>
       </c>
       <c r="E268" s="13">
-        <v>2E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F268" s="14" t="s">
         <v>90</v>
@@ -5960,7 +5992,7 @@
       </c>
       <c r="D269" s="14"/>
       <c r="E269" s="13">
-        <v>4.0000000000000001E-3</v>
+        <v>0.4</v>
       </c>
       <c r="F269" s="14" t="s">
         <v>90</v>
@@ -5980,7 +6012,7 @@
         <v>69.099999999999994</v>
       </c>
       <c r="E270" s="13">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2</v>
       </c>
       <c r="F270" s="14" t="s">
         <v>90</v>
@@ -6000,7 +6032,7 @@
         <v>100.5</v>
       </c>
       <c r="E271" s="13">
-        <v>0.27200000000000002</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="F271" s="14" t="s">
         <v>90</v>
@@ -6018,7 +6050,7 @@
       </c>
       <c r="D272" s="14"/>
       <c r="E272" s="13">
-        <v>8.9999999999999993E-3</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F272" s="14" t="s">
         <v>90</v>
@@ -6038,7 +6070,7 @@
         <v>94.8</v>
       </c>
       <c r="E273" s="13">
-        <v>6.4000000000000001E-2</v>
+        <v>6.4</v>
       </c>
       <c r="F273" s="14" t="s">
         <v>90</v>
@@ -6058,7 +6090,7 @@
         <v>108.1</v>
       </c>
       <c r="E274" s="13">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="F274" s="14" t="s">
         <v>90</v>
@@ -6078,7 +6110,7 @@
         <v>109.9</v>
       </c>
       <c r="E275" s="13">
-        <v>4.8000000000000001E-2</v>
+        <v>4.8</v>
       </c>
       <c r="F275" s="14" t="s">
         <v>90</v>
@@ -6098,7 +6130,7 @@
         <v>188.1</v>
       </c>
       <c r="E276" s="13">
-        <v>4.0000000000000001E-3</v>
+        <v>0.4</v>
       </c>
       <c r="F276" s="14" t="s">
         <v>90</v>
@@ -6118,7 +6150,7 @@
         <v>45</v>
       </c>
       <c r="E277" s="13">
-        <v>2E-3</v>
+        <v>0.2</v>
       </c>
       <c r="F277" s="14" t="s">
         <v>90</v>
@@ -6138,7 +6170,7 @@
         <v>56</v>
       </c>
       <c r="E278" s="13">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1</v>
       </c>
       <c r="F278" s="14" t="s">
         <v>90</v>
@@ -6156,7 +6188,7 @@
       </c>
       <c r="D279" s="14"/>
       <c r="E279" s="13">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F279" s="14" t="s">
         <v>90</v>
@@ -6176,7 +6208,7 @@
         <v>119.4</v>
       </c>
       <c r="E280" s="13">
-        <v>9.8000000000000004E-2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F280" s="14" t="s">
         <v>90</v>
@@ -6196,7 +6228,7 @@
         <v>122.6</v>
       </c>
       <c r="E281" s="13">
-        <v>5.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="F281" s="14" t="s">
         <v>90</v>

--- a/Insurace_Payments.xlsx
+++ b/Insurace_Payments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfelipe/Downloads/Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19B98D-B9D6-9441-B639-38013C330201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE64EFB-B153-CC4D-AA97-EA2F9439404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,10 +690,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F247" sqref="F247"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5426,7 +5426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="14">
+    <row r="241" spans="1:7" ht="14">
       <c r="A241" s="9" t="s">
         <v>20</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="14">
+    <row r="242" spans="1:7" ht="14">
       <c r="A242" s="9" t="s">
         <v>47</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="14">
+    <row r="243" spans="1:7" ht="14">
       <c r="A243" s="9" t="s">
         <v>15</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="14">
+    <row r="244" spans="1:7" ht="14">
       <c r="A244" s="9" t="s">
         <v>26</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="14">
+    <row r="245" spans="1:7" ht="14">
       <c r="A245" s="9" t="s">
         <v>88</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="14">
+    <row r="246" spans="1:7" ht="14">
       <c r="A246" s="9" t="s">
         <v>49</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="14">
+    <row r="247" spans="1:7" ht="14">
       <c r="A247" s="9" t="s">
         <v>89</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15">
+    <row r="248" spans="1:7" ht="15">
       <c r="A248" s="11" t="s">
         <v>16</v>
       </c>
@@ -5578,13 +5578,18 @@
         <v>96.5</v>
       </c>
       <c r="E248" s="13">
-        <v>12.2</v>
+        <f>G248*100</f>
+        <v>64.766839378238345</v>
       </c>
       <c r="F248" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G248">
+        <f>(D248-34)/D248</f>
+        <v>0.64766839378238339</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" customHeight="1">
       <c r="A249" s="11" t="s">
         <v>1</v>
       </c>
@@ -5598,13 +5603,18 @@
         <v>125.9</v>
       </c>
       <c r="E249" s="13">
-        <v>2</v>
+        <f t="shared" ref="E249:E281" si="0">G249*100</f>
+        <v>72.994440031771248</v>
       </c>
       <c r="F249" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G249">
+        <f t="shared" ref="G249:G281" si="1">(D249-34)/D249</f>
+        <v>0.72994440031771246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" customHeight="1">
       <c r="A250" s="11" t="s">
         <v>75</v>
       </c>
@@ -5618,13 +5628,18 @@
         <v>100</v>
       </c>
       <c r="E250" s="13">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="F250" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G250">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" customHeight="1">
       <c r="A251" s="11" t="s">
         <v>74</v>
       </c>
@@ -5638,13 +5653,18 @@
         <v>133.30000000000001</v>
       </c>
       <c r="E251" s="13">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>74.493623405851466</v>
       </c>
       <c r="F251" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G251">
+        <f t="shared" si="1"/>
+        <v>0.74493623405851461</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" customHeight="1">
       <c r="A252" s="11" t="s">
         <v>15</v>
       </c>
@@ -5658,13 +5678,18 @@
         <v>103.5</v>
       </c>
       <c r="E252" s="13">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>67.149758454106276</v>
       </c>
       <c r="F252" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G252">
+        <f t="shared" si="1"/>
+        <v>0.67149758454106279</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" customHeight="1">
       <c r="A253" s="11" t="s">
         <v>2</v>
       </c>
@@ -5678,13 +5703,18 @@
         <v>209.3</v>
       </c>
       <c r="E253" s="13">
-        <v>10.5</v>
+        <f t="shared" si="0"/>
+        <v>83.755375059722894</v>
       </c>
       <c r="F253" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G253">
+        <f t="shared" si="1"/>
+        <v>0.83755375059722892</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" customHeight="1">
       <c r="A254" s="11" t="s">
         <v>4</v>
       </c>
@@ -5695,14 +5725,19 @@
         <v>1</v>
       </c>
       <c r="D254" s="14"/>
-      <c r="E254" s="13">
-        <v>0.1</v>
+      <c r="E254" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F254" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G254" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" customHeight="1">
       <c r="A255" s="11" t="s">
         <v>30</v>
       </c>
@@ -5716,13 +5751,18 @@
         <v>91.2</v>
       </c>
       <c r="E255" s="13">
-        <v>1.7999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>62.719298245614041</v>
       </c>
       <c r="F255" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G255">
+        <f t="shared" si="1"/>
+        <v>0.62719298245614041</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" customHeight="1">
       <c r="A256" s="11" t="s">
         <v>91</v>
       </c>
@@ -5735,14 +5775,19 @@
       <c r="D256" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E256" s="13">
-        <v>0.1</v>
+      <c r="E256" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F256" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G256" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" customHeight="1">
       <c r="A257" s="11" t="s">
         <v>23</v>
       </c>
@@ -5756,13 +5801,18 @@
         <v>109.2</v>
       </c>
       <c r="E257" s="13">
-        <v>0.89999999999999991</v>
+        <f t="shared" si="0"/>
+        <v>68.864468864468861</v>
       </c>
       <c r="F257" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G257">
+        <f t="shared" si="1"/>
+        <v>0.68864468864468864</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" customHeight="1">
       <c r="A258" s="11" t="s">
         <v>49</v>
       </c>
@@ -5773,14 +5823,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="14"/>
-      <c r="E258" s="13">
-        <v>0.1</v>
-      </c>
+      <c r="E258" s="13"/>
       <c r="F258" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G258" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" customHeight="1">
       <c r="A259" s="11" t="s">
         <v>24</v>
       </c>
@@ -5794,13 +5846,18 @@
         <v>59.5</v>
       </c>
       <c r="E259" s="13">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>42.857142857142854</v>
       </c>
       <c r="F259" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G259">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" customHeight="1">
       <c r="A260" s="11" t="s">
         <v>18</v>
       </c>
@@ -5814,13 +5871,18 @@
         <v>87.3</v>
       </c>
       <c r="E260" s="13">
-        <v>2.6</v>
+        <f t="shared" si="0"/>
+        <v>61.053837342497133</v>
       </c>
       <c r="F260" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G260">
+        <f t="shared" si="1"/>
+        <v>0.6105383734249713</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" customHeight="1">
       <c r="A261" s="11" t="s">
         <v>53</v>
       </c>
@@ -5834,13 +5896,18 @@
         <v>78.599999999999994</v>
       </c>
       <c r="E261" s="13">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>56.743002544529261</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G261">
+        <f t="shared" si="1"/>
+        <v>0.56743002544529264</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" customHeight="1">
       <c r="A262" s="11" t="s">
         <v>60</v>
       </c>
@@ -5854,13 +5921,18 @@
         <v>85</v>
       </c>
       <c r="E262" s="13">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="F262" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G262">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" customHeight="1">
       <c r="A263" s="11" t="s">
         <v>21</v>
       </c>
@@ -5874,13 +5946,18 @@
         <v>85.5</v>
       </c>
       <c r="E263" s="13">
-        <v>0.3</v>
+        <f t="shared" si="0"/>
+        <v>60.23391812865497</v>
       </c>
       <c r="F263" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G263">
+        <f t="shared" si="1"/>
+        <v>0.60233918128654973</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" customHeight="1">
       <c r="A264" s="11" t="s">
         <v>19</v>
       </c>
@@ -5894,13 +5971,18 @@
         <v>90.3</v>
       </c>
       <c r="E264" s="13">
-        <v>3.4000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>62.347729789590254</v>
       </c>
       <c r="F264" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G264">
+        <f t="shared" si="1"/>
+        <v>0.62347729789590256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" customHeight="1">
       <c r="A265" s="11" t="s">
         <v>92</v>
       </c>
@@ -5914,13 +5996,18 @@
         <v>71.099999999999994</v>
       </c>
       <c r="E265" s="13">
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>52.180028129395218</v>
       </c>
       <c r="F265" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G265">
+        <f t="shared" si="1"/>
+        <v>0.52180028129395217</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" customHeight="1">
       <c r="A266" s="11" t="s">
         <v>14</v>
       </c>
@@ -5934,13 +6021,18 @@
         <v>130</v>
       </c>
       <c r="E266" s="13">
-        <v>1.7999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>73.846153846153854</v>
       </c>
       <c r="F266" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G266">
+        <f t="shared" si="1"/>
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" customHeight="1">
       <c r="A267" s="11" t="s">
         <v>20</v>
       </c>
@@ -5954,13 +6046,18 @@
         <v>117.4</v>
       </c>
       <c r="E267" s="13">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>71.03918228279386</v>
       </c>
       <c r="F267" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G267">
+        <f t="shared" si="1"/>
+        <v>0.71039182282793867</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" customHeight="1">
       <c r="A268" s="11" t="s">
         <v>54</v>
       </c>
@@ -5974,13 +6071,18 @@
         <v>78.900000000000006</v>
       </c>
       <c r="E268" s="13">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>56.907477820025356</v>
       </c>
       <c r="F268" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G268">
+        <f t="shared" si="1"/>
+        <v>0.56907477820025354</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" customHeight="1">
       <c r="A269" s="11" t="s">
         <v>93</v>
       </c>
@@ -5991,14 +6093,19 @@
         <v>4</v>
       </c>
       <c r="D269" s="14"/>
-      <c r="E269" s="13">
-        <v>0.4</v>
+      <c r="E269" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F269" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G269" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" customHeight="1">
       <c r="A270" s="11" t="s">
         <v>27</v>
       </c>
@@ -6012,13 +6119,18 @@
         <v>69.099999999999994</v>
       </c>
       <c r="E270" s="13">
-        <v>3.2</v>
+        <f t="shared" si="0"/>
+        <v>50.795947901591887</v>
       </c>
       <c r="F270" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G270">
+        <f t="shared" si="1"/>
+        <v>0.50795947901591887</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" customHeight="1">
       <c r="A271" s="11" t="s">
         <v>13</v>
       </c>
@@ -6032,13 +6144,18 @@
         <v>100.5</v>
       </c>
       <c r="E271" s="13">
-        <v>27.200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>66.169154228855717</v>
       </c>
       <c r="F271" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G271">
+        <f t="shared" si="1"/>
+        <v>0.6616915422885572</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" customHeight="1">
       <c r="A272" s="11" t="s">
         <v>46</v>
       </c>
@@ -6049,14 +6166,19 @@
         <v>9</v>
       </c>
       <c r="D272" s="14"/>
-      <c r="E272" s="13">
-        <v>0.89999999999999991</v>
+      <c r="E272" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F272" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G272" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" customHeight="1">
       <c r="A273" s="11" t="s">
         <v>3</v>
       </c>
@@ -6070,13 +6192,18 @@
         <v>94.8</v>
       </c>
       <c r="E273" s="13">
-        <v>6.4</v>
+        <f t="shared" si="0"/>
+        <v>64.135021097046405</v>
       </c>
       <c r="F273" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G273">
+        <f t="shared" si="1"/>
+        <v>0.64135021097046407</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" customHeight="1">
       <c r="A274" s="11" t="s">
         <v>36</v>
       </c>
@@ -6090,13 +6217,18 @@
         <v>108.1</v>
       </c>
       <c r="E274" s="13">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>68.547641073080484</v>
       </c>
       <c r="F274" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G274">
+        <f t="shared" si="1"/>
+        <v>0.68547641073080479</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" customHeight="1">
       <c r="A275" s="11" t="s">
         <v>45</v>
       </c>
@@ -6110,13 +6242,18 @@
         <v>109.9</v>
       </c>
       <c r="E275" s="13">
-        <v>4.8</v>
+        <f t="shared" si="0"/>
+        <v>69.06278434940856</v>
       </c>
       <c r="F275" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G275">
+        <f t="shared" si="1"/>
+        <v>0.69062784349408557</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" customHeight="1">
       <c r="A276" s="11" t="s">
         <v>22</v>
       </c>
@@ -6130,13 +6267,18 @@
         <v>188.1</v>
       </c>
       <c r="E276" s="13">
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>81.924508240297712</v>
       </c>
       <c r="F276" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G276">
+        <f t="shared" si="1"/>
+        <v>0.81924508240297711</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" customHeight="1">
       <c r="A277" s="11" t="s">
         <v>67</v>
       </c>
@@ -6150,13 +6292,18 @@
         <v>45</v>
       </c>
       <c r="E277" s="13">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>24.444444444444443</v>
       </c>
       <c r="F277" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G277">
+        <f t="shared" si="1"/>
+        <v>0.24444444444444444</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" customHeight="1">
       <c r="A278" s="11" t="s">
         <v>47</v>
       </c>
@@ -6170,13 +6317,18 @@
         <v>56</v>
       </c>
       <c r="E278" s="13">
-        <v>2.1</v>
+        <f t="shared" si="0"/>
+        <v>39.285714285714285</v>
       </c>
       <c r="F278" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G278">
+        <f t="shared" si="1"/>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" customHeight="1">
       <c r="A279" s="11" t="s">
         <v>40</v>
       </c>
@@ -6187,14 +6339,19 @@
         <v>1</v>
       </c>
       <c r="D279" s="14"/>
-      <c r="E279" s="13">
-        <v>0.1</v>
+      <c r="E279" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F279" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G279" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" customHeight="1">
       <c r="A280" s="11" t="s">
         <v>17</v>
       </c>
@@ -6208,13 +6365,18 @@
         <v>119.4</v>
       </c>
       <c r="E280" s="13">
-        <v>9.8000000000000007</v>
+        <f t="shared" si="0"/>
+        <v>71.524288107202679</v>
       </c>
       <c r="F280" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G280">
+        <f t="shared" si="1"/>
+        <v>0.71524288107202683</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" customHeight="1">
       <c r="A281" s="11" t="s">
         <v>26</v>
       </c>
@@ -6228,10 +6390,15 @@
         <v>122.6</v>
       </c>
       <c r="E281" s="13">
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>72.26753670473083</v>
       </c>
       <c r="F281" s="14" t="s">
         <v>90</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="1"/>
+        <v>0.72267536704730828</v>
       </c>
     </row>
   </sheetData>

--- a/Insurace_Payments.xlsx
+++ b/Insurace_Payments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanfelipe/Downloads/Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE64EFB-B153-CC4D-AA97-EA2F9439404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D56E9D-94EB-0145-85A8-ED2A2315C61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,10 +690,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E258" sqref="E258"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E279" sqref="E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5426,7 +5426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="14">
+    <row r="241" spans="1:6" ht="14">
       <c r="A241" s="9" t="s">
         <v>20</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="14">
+    <row r="242" spans="1:6" ht="14">
       <c r="A242" s="9" t="s">
         <v>47</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="14">
+    <row r="243" spans="1:6" ht="14">
       <c r="A243" s="9" t="s">
         <v>15</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="14">
+    <row r="244" spans="1:6" ht="14">
       <c r="A244" s="9" t="s">
         <v>26</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="14">
+    <row r="245" spans="1:6" ht="14">
       <c r="A245" s="9" t="s">
         <v>88</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="14">
+    <row r="246" spans="1:6" ht="14">
       <c r="A246" s="9" t="s">
         <v>49</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="14">
+    <row r="247" spans="1:6" ht="14">
       <c r="A247" s="9" t="s">
         <v>89</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15">
+    <row r="248" spans="1:6" ht="15">
       <c r="A248" s="11" t="s">
         <v>16</v>
       </c>
@@ -5578,18 +5578,13 @@
         <v>96.5</v>
       </c>
       <c r="E248" s="13">
-        <f>G248*100</f>
         <v>64.766839378238345</v>
       </c>
       <c r="F248" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G248">
-        <f>(D248-34)/D248</f>
-        <v>0.64766839378238339</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1">
       <c r="A249" s="11" t="s">
         <v>1</v>
       </c>
@@ -5603,18 +5598,13 @@
         <v>125.9</v>
       </c>
       <c r="E249" s="13">
-        <f t="shared" ref="E249:E281" si="0">G249*100</f>
         <v>72.994440031771248</v>
       </c>
       <c r="F249" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G249">
-        <f t="shared" ref="G249:G281" si="1">(D249-34)/D249</f>
-        <v>0.72994440031771246</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1">
       <c r="A250" s="11" t="s">
         <v>75</v>
       </c>
@@ -5628,18 +5618,13 @@
         <v>100</v>
       </c>
       <c r="E250" s="13">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="F250" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G250">
-        <f t="shared" si="1"/>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1">
       <c r="A251" s="11" t="s">
         <v>74</v>
       </c>
@@ -5653,18 +5638,13 @@
         <v>133.30000000000001</v>
       </c>
       <c r="E251" s="13">
-        <f t="shared" si="0"/>
         <v>74.493623405851466</v>
       </c>
       <c r="F251" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G251">
-        <f t="shared" si="1"/>
-        <v>0.74493623405851461</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1">
       <c r="A252" s="11" t="s">
         <v>15</v>
       </c>
@@ -5678,18 +5658,13 @@
         <v>103.5</v>
       </c>
       <c r="E252" s="13">
-        <f t="shared" si="0"/>
         <v>67.149758454106276</v>
       </c>
       <c r="F252" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G252">
-        <f t="shared" si="1"/>
-        <v>0.67149758454106279</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1">
       <c r="A253" s="11" t="s">
         <v>2</v>
       </c>
@@ -5703,18 +5678,13 @@
         <v>209.3</v>
       </c>
       <c r="E253" s="13">
-        <f t="shared" si="0"/>
         <v>83.755375059722894</v>
       </c>
       <c r="F253" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G253">
-        <f t="shared" si="1"/>
-        <v>0.83755375059722892</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1">
       <c r="A254" s="11" t="s">
         <v>4</v>
       </c>
@@ -5725,19 +5695,12 @@
         <v>1</v>
       </c>
       <c r="D254" s="14"/>
-      <c r="E254" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E254" s="13"/>
       <c r="F254" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G254" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1">
       <c r="A255" s="11" t="s">
         <v>30</v>
       </c>
@@ -5751,18 +5714,13 @@
         <v>91.2</v>
       </c>
       <c r="E255" s="13">
-        <f t="shared" si="0"/>
         <v>62.719298245614041</v>
       </c>
       <c r="F255" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G255">
-        <f t="shared" si="1"/>
-        <v>0.62719298245614041</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1">
       <c r="A256" s="11" t="s">
         <v>91</v>
       </c>
@@ -5775,19 +5733,12 @@
       <c r="D256" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="E256" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E256" s="13"/>
       <c r="F256" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G256" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1">
       <c r="A257" s="11" t="s">
         <v>23</v>
       </c>
@@ -5801,18 +5752,13 @@
         <v>109.2</v>
       </c>
       <c r="E257" s="13">
-        <f t="shared" si="0"/>
         <v>68.864468864468861</v>
       </c>
       <c r="F257" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G257">
-        <f t="shared" si="1"/>
-        <v>0.68864468864468864</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1">
       <c r="A258" s="11" t="s">
         <v>49</v>
       </c>
@@ -5827,12 +5773,8 @@
       <c r="F258" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G258" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1">
       <c r="A259" s="11" t="s">
         <v>24</v>
       </c>
@@ -5846,18 +5788,13 @@
         <v>59.5</v>
       </c>
       <c r="E259" s="13">
-        <f t="shared" si="0"/>
         <v>42.857142857142854</v>
       </c>
       <c r="F259" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G259">
-        <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1">
       <c r="A260" s="11" t="s">
         <v>18</v>
       </c>
@@ -5871,18 +5808,13 @@
         <v>87.3</v>
       </c>
       <c r="E260" s="13">
-        <f t="shared" si="0"/>
         <v>61.053837342497133</v>
       </c>
       <c r="F260" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G260">
-        <f t="shared" si="1"/>
-        <v>0.6105383734249713</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1">
       <c r="A261" s="11" t="s">
         <v>53</v>
       </c>
@@ -5896,18 +5828,13 @@
         <v>78.599999999999994</v>
       </c>
       <c r="E261" s="13">
-        <f t="shared" si="0"/>
         <v>56.743002544529261</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G261">
-        <f t="shared" si="1"/>
-        <v>0.56743002544529264</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1">
       <c r="A262" s="11" t="s">
         <v>60</v>
       </c>
@@ -5921,18 +5848,13 @@
         <v>85</v>
       </c>
       <c r="E262" s="13">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F262" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G262">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1">
       <c r="A263" s="11" t="s">
         <v>21</v>
       </c>
@@ -5946,18 +5868,13 @@
         <v>85.5</v>
       </c>
       <c r="E263" s="13">
-        <f t="shared" si="0"/>
         <v>60.23391812865497</v>
       </c>
       <c r="F263" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G263">
-        <f t="shared" si="1"/>
-        <v>0.60233918128654973</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1">
       <c r="A264" s="11" t="s">
         <v>19</v>
       </c>
@@ -5971,18 +5888,13 @@
         <v>90.3</v>
       </c>
       <c r="E264" s="13">
-        <f t="shared" si="0"/>
         <v>62.347729789590254</v>
       </c>
       <c r="F264" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G264">
-        <f t="shared" si="1"/>
-        <v>0.62347729789590256</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1">
       <c r="A265" s="11" t="s">
         <v>92</v>
       </c>
@@ -5996,18 +5908,13 @@
         <v>71.099999999999994</v>
       </c>
       <c r="E265" s="13">
-        <f t="shared" si="0"/>
         <v>52.180028129395218</v>
       </c>
       <c r="F265" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G265">
-        <f t="shared" si="1"/>
-        <v>0.52180028129395217</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1">
       <c r="A266" s="11" t="s">
         <v>14</v>
       </c>
@@ -6021,18 +5928,13 @@
         <v>130</v>
       </c>
       <c r="E266" s="13">
-        <f t="shared" si="0"/>
         <v>73.846153846153854</v>
       </c>
       <c r="F266" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G266">
-        <f t="shared" si="1"/>
-        <v>0.7384615384615385</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1">
       <c r="A267" s="11" t="s">
         <v>20</v>
       </c>
@@ -6046,18 +5948,13 @@
         <v>117.4</v>
       </c>
       <c r="E267" s="13">
-        <f t="shared" si="0"/>
         <v>71.03918228279386</v>
       </c>
       <c r="F267" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G267">
-        <f t="shared" si="1"/>
-        <v>0.71039182282793867</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1">
       <c r="A268" s="11" t="s">
         <v>54</v>
       </c>
@@ -6071,18 +5968,13 @@
         <v>78.900000000000006</v>
       </c>
       <c r="E268" s="13">
-        <f t="shared" si="0"/>
         <v>56.907477820025356</v>
       </c>
       <c r="F268" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G268">
-        <f t="shared" si="1"/>
-        <v>0.56907477820025354</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1">
       <c r="A269" s="11" t="s">
         <v>93</v>
       </c>
@@ -6093,19 +5985,12 @@
         <v>4</v>
       </c>
       <c r="D269" s="14"/>
-      <c r="E269" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E269" s="13"/>
       <c r="F269" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G269" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1">
       <c r="A270" s="11" t="s">
         <v>27</v>
       </c>
@@ -6119,18 +6004,13 @@
         <v>69.099999999999994</v>
       </c>
       <c r="E270" s="13">
-        <f t="shared" si="0"/>
         <v>50.795947901591887</v>
       </c>
       <c r="F270" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G270">
-        <f t="shared" si="1"/>
-        <v>0.50795947901591887</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1">
       <c r="A271" s="11" t="s">
         <v>13</v>
       </c>
@@ -6144,18 +6024,13 @@
         <v>100.5</v>
       </c>
       <c r="E271" s="13">
-        <f t="shared" si="0"/>
         <v>66.169154228855717</v>
       </c>
       <c r="F271" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G271">
-        <f t="shared" si="1"/>
-        <v>0.6616915422885572</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1">
       <c r="A272" s="11" t="s">
         <v>46</v>
       </c>
@@ -6166,19 +6041,12 @@
         <v>9</v>
       </c>
       <c r="D272" s="14"/>
-      <c r="E272" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E272" s="13"/>
       <c r="F272" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G272" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1">
       <c r="A273" s="11" t="s">
         <v>3</v>
       </c>
@@ -6192,18 +6060,13 @@
         <v>94.8</v>
       </c>
       <c r="E273" s="13">
-        <f t="shared" si="0"/>
         <v>64.135021097046405</v>
       </c>
       <c r="F273" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G273">
-        <f t="shared" si="1"/>
-        <v>0.64135021097046407</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1">
       <c r="A274" s="11" t="s">
         <v>36</v>
       </c>
@@ -6217,18 +6080,13 @@
         <v>108.1</v>
       </c>
       <c r="E274" s="13">
-        <f t="shared" si="0"/>
         <v>68.547641073080484</v>
       </c>
       <c r="F274" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G274">
-        <f t="shared" si="1"/>
-        <v>0.68547641073080479</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1">
       <c r="A275" s="11" t="s">
         <v>45</v>
       </c>
@@ -6242,18 +6100,13 @@
         <v>109.9</v>
       </c>
       <c r="E275" s="13">
-        <f t="shared" si="0"/>
         <v>69.06278434940856</v>
       </c>
       <c r="F275" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G275">
-        <f t="shared" si="1"/>
-        <v>0.69062784349408557</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1">
       <c r="A276" s="11" t="s">
         <v>22</v>
       </c>
@@ -6267,18 +6120,13 @@
         <v>188.1</v>
       </c>
       <c r="E276" s="13">
-        <f t="shared" si="0"/>
         <v>81.924508240297712</v>
       </c>
       <c r="F276" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G276">
-        <f t="shared" si="1"/>
-        <v>0.81924508240297711</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1">
       <c r="A277" s="11" t="s">
         <v>67</v>
       </c>
@@ -6292,18 +6140,13 @@
         <v>45</v>
       </c>
       <c r="E277" s="13">
-        <f t="shared" si="0"/>
         <v>24.444444444444443</v>
       </c>
       <c r="F277" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G277">
-        <f t="shared" si="1"/>
-        <v>0.24444444444444444</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1">
       <c r="A278" s="11" t="s">
         <v>47</v>
       </c>
@@ -6317,18 +6160,13 @@
         <v>56</v>
       </c>
       <c r="E278" s="13">
-        <f t="shared" si="0"/>
         <v>39.285714285714285</v>
       </c>
       <c r="F278" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G278">
-        <f t="shared" si="1"/>
-        <v>0.39285714285714285</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1">
       <c r="A279" s="11" t="s">
         <v>40</v>
       </c>
@@ -6339,19 +6177,12 @@
         <v>1</v>
       </c>
       <c r="D279" s="14"/>
-      <c r="E279" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E279" s="13"/>
       <c r="F279" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G279" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1">
       <c r="A280" s="11" t="s">
         <v>17</v>
       </c>
@@ -6365,18 +6196,13 @@
         <v>119.4</v>
       </c>
       <c r="E280" s="13">
-        <f t="shared" si="0"/>
         <v>71.524288107202679</v>
       </c>
       <c r="F280" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G280">
-        <f t="shared" si="1"/>
-        <v>0.71524288107202683</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1">
       <c r="A281" s="11" t="s">
         <v>26</v>
       </c>
@@ -6390,15 +6216,10 @@
         <v>122.6</v>
       </c>
       <c r="E281" s="13">
-        <f t="shared" si="0"/>
         <v>72.26753670473083</v>
       </c>
       <c r="F281" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="G281">
-        <f t="shared" si="1"/>
-        <v>0.72267536704730828</v>
       </c>
     </row>
   </sheetData>
